--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-0.35/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-0.35/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="1029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="1029">
   <si>
     <t>anchor score</t>
   </si>
@@ -460,397 +460,397 @@
     <t>difficult</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>going</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>everything</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>flour</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>amazon</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>going</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>financial</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>everything</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>flour</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>certainly</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>real</t>
   </si>
   <si>
     <t>san</t>
@@ -3469,7 +3469,7 @@
         <v>65</v>
       </c>
       <c r="J1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3527,7 +3527,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02986407951275005</v>
+        <v>0.03032305444652914</v>
       </c>
       <c r="C3">
         <v>147</v>
@@ -3548,16 +3548,16 @@
         <v>145</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K3">
-        <v>0.004875111698894483</v>
+        <v>0.007783854043659238</v>
       </c>
       <c r="L3">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="M3">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>415</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3577,7 +3577,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.02118879824399673</v>
+        <v>0.02151444455319386</v>
       </c>
       <c r="C4">
         <v>74</v>
@@ -3598,28 +3598,28 @@
         <v>442</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>157</v>
+        <v>278</v>
       </c>
       <c r="K4">
-        <v>0.004825876853929609</v>
+        <v>0.007156507187380232</v>
       </c>
       <c r="L4">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="M4">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="N4">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>208</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3627,7 +3627,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01073661218490591</v>
+        <v>0.01090162098299979</v>
       </c>
       <c r="C5">
         <v>19</v>
@@ -3648,28 +3648,28 @@
         <v>56</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>80</v>
+        <v>279</v>
       </c>
       <c r="K5">
-        <v>0.004371440270212355</v>
+        <v>0.004875111698894483</v>
       </c>
       <c r="L5">
-        <v>350</v>
+        <v>71</v>
       </c>
       <c r="M5">
-        <v>360</v>
+        <v>71</v>
       </c>
       <c r="N5">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>2747</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3677,7 +3677,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.009852591054735217</v>
+        <v>0.01000401351277444</v>
       </c>
       <c r="C6">
         <v>16</v>
@@ -3698,28 +3698,28 @@
         <v>20</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>280</v>
+        <v>155</v>
       </c>
       <c r="K6">
-        <v>0.003881160951352244</v>
+        <v>0.004825876853929609</v>
       </c>
       <c r="L6">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="M6">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>18</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3727,7 +3727,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.00921625502470322</v>
+        <v>0.009357897764364704</v>
       </c>
       <c r="C7">
         <v>14</v>
@@ -3748,28 +3748,28 @@
         <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>281</v>
+        <v>80</v>
       </c>
       <c r="K7">
-        <v>0.003323627673023519</v>
+        <v>0.004371440270212355</v>
       </c>
       <c r="L7">
-        <v>33</v>
+        <v>350</v>
       </c>
       <c r="M7">
-        <v>33</v>
+        <v>360</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>126</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3777,7 +3777,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.008169336935342169</v>
+        <v>0.008294889804879531</v>
       </c>
       <c r="C8">
         <v>11</v>
@@ -3798,28 +3798,28 @@
         <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>162</v>
+        <v>280</v>
       </c>
       <c r="K8">
-        <v>0.003314939852125495</v>
+        <v>0.003881160951352244</v>
       </c>
       <c r="L8">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="M8">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="N8">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3827,7 +3827,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.007789157146790997</v>
+        <v>0.007908867110867303</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -3848,28 +3848,28 @@
         <v>24</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>81</v>
+        <v>281</v>
       </c>
       <c r="K9">
-        <v>0.003132843983953091</v>
+        <v>0.003323627673023519</v>
       </c>
       <c r="L9">
-        <v>256</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>267</v>
+        <v>33</v>
       </c>
       <c r="N9">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1876</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3877,7 +3877,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.007389443291051412</v>
+        <v>0.007503010134580832</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -3898,16 +3898,16 @@
         <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K10">
-        <v>0.003071371629570531</v>
+        <v>0.003314939852125495</v>
       </c>
       <c r="L10">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="M10">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="N10">
         <v>0.99</v>
@@ -3919,7 +3919,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3927,7 +3927,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.007389443291051412</v>
+        <v>0.007503010134580832</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -3948,28 +3948,28 @@
         <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>282</v>
+        <v>81</v>
       </c>
       <c r="K11">
-        <v>0.003061501045233424</v>
+        <v>0.003132843983953091</v>
       </c>
       <c r="L11">
-        <v>28</v>
+        <v>256</v>
       </c>
       <c r="M11">
-        <v>28</v>
+        <v>267</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3977,7 +3977,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.00696683394706119</v>
+        <v>0.007073905793964663</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -3998,28 +3998,28 @@
         <v>23</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>283</v>
+        <v>163</v>
       </c>
       <c r="K12">
-        <v>0.003061501045233424</v>
+        <v>0.003071371629570531</v>
       </c>
       <c r="L12">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="M12">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4027,7 +4027,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.00696683394706119</v>
+        <v>0.007073905793964663</v>
       </c>
       <c r="C13">
         <v>8</v>
@@ -4048,28 +4048,28 @@
         <v>18</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>82</v>
+        <v>282</v>
       </c>
       <c r="K13">
-        <v>0.002972253031325347</v>
+        <v>0.003061501045233424</v>
       </c>
       <c r="L13">
-        <v>220</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>229</v>
+        <v>28</v>
       </c>
       <c r="N13">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>2972</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4077,7 +4077,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.00696683394706119</v>
+        <v>0.007073905793964663</v>
       </c>
       <c r="C14">
         <v>8</v>
@@ -4098,28 +4098,28 @@
         <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>155</v>
+        <v>283</v>
       </c>
       <c r="K14">
-        <v>0.002961689912969824</v>
+        <v>0.003061501045233424</v>
       </c>
       <c r="L14">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="N14">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -4127,7 +4127,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.006516876425112239</v>
+        <v>0.006617032966832716</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -4148,28 +4148,28 @@
         <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>284</v>
+        <v>82</v>
       </c>
       <c r="K15">
-        <v>0.002651337678884757</v>
+        <v>0.002972253031325347</v>
       </c>
       <c r="L15">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="M15">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>122</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4177,7 +4177,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.006516876425112239</v>
+        <v>0.006617032966832716</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -4198,28 +4198,28 @@
         <v>12</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>285</v>
+        <v>153</v>
       </c>
       <c r="K16">
-        <v>0.002651337678884757</v>
+        <v>0.002961689912969824</v>
       </c>
       <c r="L16">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="M16">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>144</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4227,7 +4227,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.006516876425112239</v>
+        <v>0.006617032966832716</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -4248,16 +4248,16 @@
         <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K17">
-        <v>0.002587440634234829</v>
+        <v>0.002651337678884757</v>
       </c>
       <c r="L17">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M17">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -4269,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>288</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4277,7 +4277,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.006516876425112239</v>
+        <v>0.006617032966832716</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -4298,16 +4298,16 @@
         <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K18">
-        <v>0.002587440634234829</v>
+        <v>0.002651337678884757</v>
       </c>
       <c r="L18">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M18">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -4319,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4327,7 +4327,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.006033455182102801</v>
+        <v>0.006126182121551326</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -4348,7 +4348,7 @@
         <v>13</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K19">
         <v>0.002587440634234829</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>117</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4377,7 +4377,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.006033455182102801</v>
+        <v>0.006126182121551326</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -4398,28 +4398,28 @@
         <v>45</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>156</v>
+        <v>287</v>
       </c>
       <c r="K20">
-        <v>0.002524371044723341</v>
+        <v>0.002587440634234829</v>
       </c>
       <c r="L20">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="M20">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="N20">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4427,7 +4427,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.006033455182102801</v>
+        <v>0.006126182121551326</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -4448,28 +4448,28 @@
         <v>6</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>151</v>
+        <v>288</v>
       </c>
       <c r="K21">
-        <v>0.002513943124685912</v>
+        <v>0.002587440634234829</v>
       </c>
       <c r="L21">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="M21">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="N21">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>764</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4477,7 +4477,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.006033455182102801</v>
+        <v>0.006126182121551326</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -4498,28 +4498,28 @@
         <v>13</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K22">
-        <v>0.002477439047699296</v>
+        <v>0.002524371044723341</v>
       </c>
       <c r="L22">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="M22">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="N22">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O22">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>773</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4527,7 +4527,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.006033455182102801</v>
+        <v>0.006126182121551326</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -4548,28 +4548,28 @@
         <v>143</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K23">
-        <v>0.002470010161576716</v>
+        <v>0.002513943124685912</v>
       </c>
       <c r="L23">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="M23">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="N23">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O23">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>153</v>
+        <v>764</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4577,7 +4577,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.005507765838223574</v>
+        <v>0.005592413565597529</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -4598,28 +4598,28 @@
         <v>25</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>289</v>
+        <v>150</v>
       </c>
       <c r="K24">
-        <v>0.002454661714395811</v>
+        <v>0.002477439047699296</v>
       </c>
       <c r="L24">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="M24">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>33</v>
+        <v>773</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4627,7 +4627,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.005507765838223574</v>
+        <v>0.005592413565597529</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -4648,28 +4648,28 @@
         <v>33</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>290</v>
+        <v>148</v>
       </c>
       <c r="K25">
-        <v>0.002454661714395811</v>
+        <v>0.002470010161576716</v>
       </c>
       <c r="L25">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="M25">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>46</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4677,7 +4677,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.005507765838223574</v>
+        <v>0.005592413565597529</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -4698,16 +4698,16 @@
         <v>4</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K26">
-        <v>0.002385502395793411</v>
+        <v>0.002454661714395811</v>
       </c>
       <c r="L26">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M26">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -4719,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>74</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4727,7 +4727,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.005507765838223574</v>
+        <v>0.005592413565597529</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -4748,16 +4748,16 @@
         <v>3</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K27">
-        <v>0.002385502395793411</v>
+        <v>0.002454661714395811</v>
       </c>
       <c r="L27">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M27">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -4769,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4777,7 +4777,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.005507765838223574</v>
+        <v>0.005592413565597529</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -4798,28 +4798,28 @@
         <v>72</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>154</v>
+        <v>291</v>
       </c>
       <c r="K28">
-        <v>0.002353501022924745</v>
+        <v>0.002385502395793411</v>
       </c>
       <c r="L28">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="M28">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="N28">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4827,7 +4827,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.005507765838223574</v>
+        <v>0.005592413565597529</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -4848,16 +4848,16 @@
         <v>11</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K29">
-        <v>0.002314277258357699</v>
+        <v>0.002385502395793411</v>
       </c>
       <c r="L29">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M29">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -4869,7 +4869,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>34</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4877,7 +4877,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.005507765838223574</v>
+        <v>0.005592413565597529</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -4898,28 +4898,28 @@
         <v>5</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>294</v>
+        <v>152</v>
       </c>
       <c r="K30">
-        <v>0.002314277258357699</v>
+        <v>0.002353501022924745</v>
       </c>
       <c r="L30">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="M30">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4927,7 +4927,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.005507765838223574</v>
+        <v>0.005592413565597529</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -4948,7 +4948,7 @@
         <v>15</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K31">
         <v>0.002314277258357699</v>
@@ -4969,7 +4969,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>99</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -4977,7 +4977,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.005507765838223574</v>
+        <v>0.005592413565597529</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -4998,16 +4998,16 @@
         <v>7</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K32">
-        <v>0.002240789320031482</v>
+        <v>0.002314277258357699</v>
       </c>
       <c r="L32">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M32">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -5019,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>266</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -5027,7 +5027,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.005507765838223574</v>
+        <v>0.005592413565597529</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -5048,16 +5048,16 @@
         <v>25</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K33">
-        <v>0.002240789320031482</v>
+        <v>0.002314277258357699</v>
       </c>
       <c r="L33">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M33">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -5069,7 +5069,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -5077,7 +5077,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.004926295527367609</v>
+        <v>0.005002006756387222</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -5098,7 +5098,7 @@
         <v>2</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K34">
         <v>0.002240789320031482</v>
@@ -5119,7 +5119,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>94</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -5127,7 +5127,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.004926295527367609</v>
+        <v>0.005002006756387222</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -5148,28 +5148,28 @@
         <v>17</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>148</v>
+        <v>297</v>
       </c>
       <c r="K35">
-        <v>0.002199387734161279</v>
+        <v>0.002240789320031482</v>
       </c>
       <c r="L35">
-        <v>181</v>
+        <v>15</v>
       </c>
       <c r="M35">
-        <v>192</v>
+        <v>15</v>
       </c>
       <c r="N35">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>148</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -5177,7 +5177,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.004926295527367609</v>
+        <v>0.005002006756387222</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -5198,28 +5198,28 @@
         <v>22</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>149</v>
+        <v>298</v>
       </c>
       <c r="K36">
-        <v>0.002195193615831558</v>
+        <v>0.002240789320031482</v>
       </c>
       <c r="L36">
-        <v>153</v>
+        <v>15</v>
       </c>
       <c r="M36">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c r="N36">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -5227,7 +5227,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.004926295527367609</v>
+        <v>0.005002006756387222</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -5277,7 +5277,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.004926295527367609</v>
+        <v>0.005002006756387222</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -5327,7 +5327,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.004926295527367609</v>
+        <v>0.005002006756387222</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -5377,7 +5377,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.004926295527367609</v>
+        <v>0.005002006756387222</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -5427,7 +5427,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004926295527367609</v>
+        <v>0.005002006756387222</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -5477,7 +5477,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.004926295527367609</v>
+        <v>0.005002006756387222</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -5498,7 +5498,7 @@
         <v>18</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K42">
         <v>0.002053819721673221</v>
@@ -5527,7 +5527,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.004266297073250006</v>
+        <v>0.004331864920932733</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -5548,7 +5548,7 @@
         <v>4</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K43">
         <v>0.002034024731000936</v>
@@ -5577,7 +5577,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.004266297073250006</v>
+        <v>0.004331864920932733</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -5627,7 +5627,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.004266297073250006</v>
+        <v>0.004331864920932733</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -5677,7 +5677,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004266297073250006</v>
+        <v>0.004331864920932733</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -5727,7 +5727,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.004266297073250006</v>
+        <v>0.004331864920932733</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -5777,7 +5777,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004266297073250006</v>
+        <v>0.004331864920932733</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -5827,7 +5827,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.004266297073250006</v>
+        <v>0.004331864920932733</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -5877,7 +5877,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.004266297073250006</v>
+        <v>0.004331864920932733</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -5927,7 +5927,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004266297073250006</v>
+        <v>0.004331864920932733</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -5977,7 +5977,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.004266297073250006</v>
+        <v>0.004331864920932733</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -6027,7 +6027,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.004266297073250006</v>
+        <v>0.004331864920932733</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -6077,7 +6077,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004266297073250006</v>
+        <v>0.004331864920932733</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -6127,7 +6127,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.004266297073250006</v>
+        <v>0.004331864920932733</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -6148,7 +6148,7 @@
         <v>3</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K55">
         <v>0.001853207250850993</v>
@@ -6177,7 +6177,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -6227,7 +6227,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -6277,7 +6277,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -6327,7 +6327,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -6377,7 +6377,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -6427,7 +6427,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -6477,7 +6477,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -6527,7 +6527,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -6577,7 +6577,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -6627,7 +6627,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -6677,7 +6677,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -6698,7 +6698,7 @@
         <v>15</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K66">
         <v>0.001803315651374702</v>
@@ -6727,7 +6727,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -6777,7 +6777,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -6827,7 +6827,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -6877,7 +6877,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -6927,7 +6927,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -6977,7 +6977,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -7027,7 +7027,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -7077,7 +7077,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.003483416973530595</v>
+        <v>0.003536952896982332</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -7127,7 +7127,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.003145760073686298</v>
+        <v>0.003194106617261788</v>
       </c>
       <c r="C75">
         <v>10</v>
@@ -7148,7 +7148,7 @@
         <v>2747</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K75">
         <v>0.001655040387168053</v>
@@ -7177,7 +7177,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.002764713905642235</v>
+        <v>0.002807204228547333</v>
       </c>
       <c r="C76">
         <v>11</v>
@@ -7198,7 +7198,7 @@
         <v>1876</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K76">
         <v>0.001655040387168053</v>
@@ -7227,7 +7227,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.002559356371703452</v>
+        <v>0.002598690596644763</v>
       </c>
       <c r="C77">
         <v>9</v>
@@ -7277,7 +7277,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -7327,7 +7327,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -7377,7 +7377,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -7427,7 +7427,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -7448,7 +7448,7 @@
         <v>22</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K81">
         <v>0.001594304839486937</v>
@@ -7477,7 +7477,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -7527,7 +7527,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -7577,7 +7577,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -7627,7 +7627,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -7727,7 +7727,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -7777,7 +7777,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -7827,7 +7827,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -7848,7 +7848,7 @@
         <v>26</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K89">
         <v>0.001417473603742962</v>
@@ -7877,7 +7877,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -7927,7 +7927,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -7977,7 +7977,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -8027,7 +8027,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -8077,7 +8077,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -8127,7 +8127,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -8177,7 +8177,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -8227,7 +8227,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -8277,7 +8277,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -8327,7 +8327,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -8377,7 +8377,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -8427,7 +8427,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -8477,7 +8477,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8527,7 +8527,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8577,7 +8577,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8627,7 +8627,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8677,7 +8677,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8727,7 +8727,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8777,7 +8777,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8827,7 +8827,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -8877,7 +8877,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -8927,7 +8927,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -8948,7 +8948,7 @@
         <v>28</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K111">
         <v>0.001311144195335736</v>
@@ -8977,7 +8977,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -8998,7 +8998,7 @@
         <v>16</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K112">
         <v>0.001302391620536583</v>
@@ -9027,7 +9027,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -9077,7 +9077,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -9127,7 +9127,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -9177,7 +9177,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -9227,7 +9227,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -9277,7 +9277,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9327,7 +9327,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9377,7 +9377,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9427,7 +9427,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9477,7 +9477,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9527,7 +9527,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9577,7 +9577,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9627,7 +9627,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9677,7 +9677,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9727,7 +9727,7 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -9777,7 +9777,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -9827,7 +9827,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -9877,7 +9877,7 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -9927,7 +9927,7 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -9977,7 +9977,7 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -10027,7 +10027,7 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -10077,7 +10077,7 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -10127,7 +10127,7 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -10177,7 +10177,7 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -10227,7 +10227,7 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -10277,7 +10277,7 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -10327,7 +10327,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -10377,7 +10377,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -10427,7 +10427,7 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -10477,7 +10477,7 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.002463147763683804</v>
+        <v>0.002501003378193611</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -10527,25 +10527,25 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.002308308885424013</v>
+        <v>0.002039775356244211</v>
       </c>
       <c r="C143">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D143">
-        <v>192</v>
+        <v>142</v>
       </c>
       <c r="E143">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F143">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>395</v>
@@ -10577,25 +10577,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.002137013071141171</v>
+        <v>0.001936239399417158</v>
       </c>
       <c r="C144">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D144">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="E144">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F144">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>78</v>
+        <v>764</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>396</v>
@@ -10627,28 +10627,28 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.002008900967890384</v>
+        <v>0.001923450496472622</v>
       </c>
       <c r="C145">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D145">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E145">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F145">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>153</v>
+        <v>773</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K145">
         <v>0.001262621269987392</v>
@@ -10677,28 +10677,28 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.001906932148998338</v>
+        <v>0.001773649451832363</v>
       </c>
       <c r="C146">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D146">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="E146">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F146">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>764</v>
+        <v>311</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K146">
         <v>0.001223255376013991</v>
@@ -10727,13 +10727,13 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.001894336821074169</v>
+        <v>0.001736262112127266</v>
       </c>
       <c r="C147">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D147">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="E147">
         <v>0.97</v>
@@ -10745,10 +10745,10 @@
         <v>1</v>
       </c>
       <c r="H147">
-        <v>773</v>
+        <v>14</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K147">
         <v>0.001206729763763336</v>
@@ -10777,28 +10777,28 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.001746803190643947</v>
+        <v>0.001695746933372813</v>
       </c>
       <c r="C148">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D148">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E148">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F148">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>311</v>
+        <v>44</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K148">
         <v>0.001189087647233642</v>
@@ -10827,25 +10827,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.001709981752101465</v>
+        <v>0.001591707061692827</v>
       </c>
       <c r="C149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D149">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E149">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F149">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>397</v>
@@ -10877,25 +10877,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.00167007981801597</v>
+        <v>0.001581468308108705</v>
       </c>
       <c r="C150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D150">
-        <v>116</v>
+        <v>175</v>
       </c>
       <c r="E150">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="F150">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>44</v>
+        <v>208</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>398</v>
@@ -10927,25 +10927,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.001567614711612316</v>
+        <v>0.00147341147360179</v>
       </c>
       <c r="C151">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D151">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="E151">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F151">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>399</v>
@@ -10977,25 +10977,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.001557530933552066</v>
+        <v>0.001459554579025491</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D152">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="E152">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F152">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>208</v>
+        <v>340</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>400</v>
@@ -11027,25 +11027,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.00145110966575726</v>
+        <v>0.001447559478377664</v>
       </c>
       <c r="C153">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D153">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E153">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F153">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>28</v>
+        <v>1090</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>401</v>
@@ -11077,25 +11077,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.001437462511505167</v>
+        <v>0.001423431170588424</v>
       </c>
       <c r="C154">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D154">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E154">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F154">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>340</v>
+        <v>576</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>402</v>
@@ -11127,25 +11127,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.001425648970750497</v>
+        <v>0.001411938961270233</v>
       </c>
       <c r="C155">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D155">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="E155">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="F155">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>1090</v>
+        <v>24</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>403</v>
@@ -11177,25 +11177,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.001401885873151058</v>
+        <v>0.00138176802778569</v>
       </c>
       <c r="C156">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D156">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E156">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="F156">
-        <v>0.06999999999999995</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>576</v>
+        <v>788</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>404</v>
@@ -11227,25 +11227,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.001390567611876924</v>
+        <v>0.001378020393682125</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D157">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="E157">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F157">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>405</v>
@@ -11277,25 +11277,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.001360853350797285</v>
+        <v>0.001376733169789951</v>
       </c>
       <c r="C158">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D158">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="E158">
-        <v>0.91</v>
+        <v>0.99</v>
       </c>
       <c r="F158">
-        <v>0.08999999999999997</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>788</v>
+        <v>48</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>406</v>
@@ -11327,25 +11327,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.001357162441523916</v>
+        <v>0.00131182514876933</v>
       </c>
       <c r="C159">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D159">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E159">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F159">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>407</v>
@@ -11377,25 +11377,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.001355894701272537</v>
+        <v>0.001286458351103111</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D160">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="E160">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="F160">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>408</v>
@@ -11427,25 +11427,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.001291969139149723</v>
+        <v>0.001246660757056383</v>
       </c>
       <c r="C161">
         <v>3</v>
       </c>
       <c r="D161">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E161">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F161">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>156</v>
+        <v>513</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>409</v>
@@ -11477,25 +11477,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.00126698629766772</v>
+        <v>0.001195253504387038</v>
       </c>
       <c r="C162">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D162">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E162">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F162">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>37</v>
+        <v>295</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>410</v>
@@ -11527,25 +11527,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.001227791086805191</v>
+        <v>0.00118558792181926</v>
       </c>
       <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163">
+        <v>56</v>
+      </c>
+      <c r="E163">
+        <v>0.98</v>
+      </c>
+      <c r="F163">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="G163" t="b">
+        <v>1</v>
+      </c>
+      <c r="H163">
         <v>3</v>
-      </c>
-      <c r="D163">
-        <v>54</v>
-      </c>
-      <c r="E163">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F163">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G163" t="b">
-        <v>1</v>
-      </c>
-      <c r="H163">
-        <v>513</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>411</v>
@@ -11577,25 +11577,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.001177161943096845</v>
+        <v>0.001138306613968678</v>
       </c>
       <c r="C164">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D164">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E164">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F164">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>412</v>
@@ -11627,13 +11627,13 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.001167642660438491</v>
+        <v>0.001091021352527323</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E165">
         <v>0.98</v>
@@ -11645,7 +11645,7 @@
         <v>1</v>
       </c>
       <c r="H165">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>413</v>
@@ -11677,25 +11677,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.001121077010543078</v>
+        <v>0.001091021352527323</v>
       </c>
       <c r="C166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D166">
         <v>44</v>
       </c>
       <c r="E166">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F166">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>283</v>
+        <v>2</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>414</v>
@@ -11727,25 +11727,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.001074507466899118</v>
+        <v>0.001079049081123317</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D167">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E167">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="F167">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>415</v>
@@ -11777,25 +11777,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.001074507466899118</v>
+        <v>0.00102122776017401</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E168">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F168">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>416</v>
@@ -11827,25 +11827,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.001062716409840934</v>
+        <v>0.001017894245713307</v>
       </c>
       <c r="C169">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D169">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E169">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F169">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>417</v>
@@ -11877,13 +11877,13 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.001005770282286162</v>
+        <v>0.000920923031948575</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E170">
         <v>0.97</v>
@@ -11895,7 +11895,7 @@
         <v>1</v>
       </c>
       <c r="H170">
-        <v>28</v>
+        <v>201</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>418</v>
@@ -11927,25 +11927,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.001002487224469975</v>
+        <v>0.0009062994332894177</v>
       </c>
       <c r="C171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D171">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E171">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F171">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>419</v>
@@ -11977,25 +11977,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.0009069837835674604</v>
+        <v>0.0009062994332894177</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E172">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F172">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>201</v>
+        <v>105</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>420</v>
@@ -12027,7 +12027,7 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.0008925815301965238</v>
+        <v>0.0009062994332894177</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -12045,7 +12045,7 @@
         <v>1</v>
       </c>
       <c r="H173">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>421</v>
@@ -12077,13 +12077,13 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.0008925815301965238</v>
+        <v>0.0008911041142058566</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E174">
         <v>0.96</v>
@@ -12095,7 +12095,7 @@
         <v>1</v>
       </c>
       <c r="H174">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>422</v>
@@ -12127,13 +12127,13 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.0008925815301965238</v>
+        <v>0.0008911041142058566</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E175">
         <v>0.96</v>
@@ -12145,7 +12145,7 @@
         <v>1</v>
       </c>
       <c r="H175">
-        <v>187</v>
+        <v>107</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>423</v>
@@ -12177,25 +12177,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.000877616210059224</v>
+        <v>0.0008879718198003607</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D176">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E176">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F176">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>424</v>
@@ -12227,25 +12227,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.000877616210059224</v>
+        <v>0.0008879718198003607</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D177">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E177">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F177">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>425</v>
@@ -12277,25 +12277,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.0008745313265971038</v>
+        <v>0.0008638408579954128</v>
       </c>
       <c r="C178">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D178">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E178">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="F178">
-        <v>0.06999999999999995</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>426</v>
@@ -12327,25 +12327,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.0008745313265971038</v>
+        <v>0.0008588257890124187</v>
       </c>
       <c r="C179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D179">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E179">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F179">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>19</v>
+        <v>212</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>427</v>
@@ -12377,25 +12377,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.0008507656151535923</v>
+        <v>0.0007992341213240879</v>
       </c>
       <c r="C180">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D180">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E180">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="F180">
-        <v>0.08999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>428</v>
@@ -12427,25 +12427,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.0008458264551117118</v>
+        <v>0.0007645163019188792</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E181">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F181">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>429</v>
@@ -12477,25 +12477,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0007871367770886789</v>
+        <v>0.0007645163019188792</v>
       </c>
       <c r="C182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D182">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E182">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F182">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>430</v>
@@ -12527,25 +12527,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.000752944452530652</v>
+        <v>0.0007497135618752526</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D183">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E183">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F183">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>431</v>
@@ -12577,13 +12577,13 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.000752944452530652</v>
+        <v>0.0007427370753106236</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E184">
         <v>0.95</v>
@@ -12595,7 +12595,7 @@
         <v>1</v>
       </c>
       <c r="H184">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>432</v>
@@ -12627,25 +12627,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0007383657692898535</v>
+        <v>0.0007197599236746453</v>
       </c>
       <c r="C185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D185">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E185">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F185">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>433</v>
@@ -12677,25 +12677,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0007314948800180254</v>
+        <v>0.0006954587740674401</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E186">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F186">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>434</v>
@@ -12727,13 +12727,13 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0007088655144756002</v>
+        <v>0.0006954587740674401</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E187">
         <v>0.9399999999999999</v>
@@ -12745,7 +12745,7 @@
         <v>1</v>
       </c>
       <c r="H187">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>435</v>
@@ -12777,13 +12777,13 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0006849321912214886</v>
+        <v>0.0006696872921407873</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E188">
         <v>0.9399999999999999</v>
@@ -12795,7 +12795,7 @@
         <v>1</v>
       </c>
       <c r="H188">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>436</v>
@@ -12827,25 +12827,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0006849321912214886</v>
+        <v>0.0006422744278325554</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E189">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F189">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>437</v>
@@ -12877,25 +12877,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0006595507908491704</v>
+        <v>0.0006422744278325554</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E190">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F190">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>438</v>
@@ -12927,25 +12927,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0006325528523394839</v>
+        <v>0.0006310505533494691</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D191">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E191">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="F191">
-        <v>0.06999999999999995</v>
+        <v>0.13</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>58</v>
+        <v>522</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>439</v>
@@ -12977,25 +12977,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0006325528523394839</v>
+        <v>0.0006037822087520991</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D192">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E192">
-        <v>0.93</v>
+        <v>0.17</v>
       </c>
       <c r="F192">
-        <v>0.06999999999999995</v>
+        <v>0.83</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>440</v>
@@ -13027,25 +13027,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0006214988643385362</v>
+        <v>0.0005661397973228028</v>
       </c>
       <c r="C193">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D193">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E193">
-        <v>0.87</v>
+        <v>0.79</v>
       </c>
       <c r="F193">
-        <v>0.13</v>
+        <v>0.21</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>522</v>
+        <v>925</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>441</v>
@@ -13077,28 +13077,28 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0005946432580646724</v>
+        <v>0.0005479744935015167</v>
       </c>
       <c r="C194">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D194">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E194">
-        <v>0.17</v>
+        <v>0.92</v>
       </c>
       <c r="F194">
-        <v>0.83</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K194">
         <v>0.001127310282534068</v>
@@ -13127,28 +13127,28 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0005575706086071957</v>
+        <v>0.0005479744935015167</v>
       </c>
       <c r="C195">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D195">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="E195">
-        <v>0.79</v>
+        <v>0.92</v>
       </c>
       <c r="F195">
-        <v>0.21</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>925</v>
+        <v>100</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K195">
         <v>0.001089418406048369</v>
@@ -13177,7 +13177,7 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0005396802579286792</v>
+        <v>0.0005479744935015167</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -13195,10 +13195,10 @@
         <v>1</v>
       </c>
       <c r="H196">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K196">
         <v>0.001089418406048369</v>
@@ -13227,7 +13227,7 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0005396802579286792</v>
+        <v>0.0005479744935015167</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -13245,10 +13245,10 @@
         <v>1</v>
       </c>
       <c r="H197">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K197">
         <v>0.001089418406048369</v>
@@ -13277,7 +13277,7 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0005396802579286792</v>
+        <v>0.0005479744935015167</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -13295,10 +13295,10 @@
         <v>1</v>
       </c>
       <c r="H198">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K198">
         <v>0.001051129538863399</v>
@@ -13327,28 +13327,28 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0005396802579286792</v>
+        <v>0.0005115530343727023</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E199">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F199">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K199">
         <v>0.001051129538863399</v>
@@ -13377,28 +13377,28 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0005396802579286792</v>
+        <v>0.0005115530343727023</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E200">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F200">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K200">
         <v>0.001025164327571798</v>
@@ -13427,25 +13427,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0005038100802290251</v>
+        <v>0.000502968587617931</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D201">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E201">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="F201">
-        <v>0.08999999999999997</v>
+        <v>0.13</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>442</v>
@@ -13477,25 +13477,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0005038100802290251</v>
+        <v>0.0004676876878466424</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D202">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E202">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="F202">
-        <v>0.08999999999999997</v>
+        <v>0.17</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>443</v>
@@ -13527,25 +13527,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0004953555691272649</v>
+        <v>0.000428778001844118</v>
       </c>
       <c r="C203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D203">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E203">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="F203">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>444</v>
@@ -13577,13 +13577,13 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0004606086870837995</v>
+        <v>0.0003818653980687772</v>
       </c>
       <c r="C204">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D204">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E204">
         <v>0.83</v>
@@ -13595,7 +13595,7 @@
         <v>1</v>
       </c>
       <c r="H204">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>445</v>
@@ -13627,25 +13627,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.00042228794473759</v>
+        <v>0.0003818653980687772</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D205">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E205">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F205">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>446</v>
@@ -13677,25 +13677,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0003760854181495312</v>
+        <v>0.00038126288495694</v>
       </c>
       <c r="C206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D206">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E206">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F206">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>447</v>
@@ -13727,25 +13727,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0003760854181495312</v>
+        <v>0.00038126288495694</v>
       </c>
       <c r="C207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D207">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E207">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F207">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>448</v>
@@ -13777,7 +13777,7 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0003754920247791136</v>
+        <v>0.00038126288495694</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -13795,7 +13795,7 @@
         <v>1</v>
       </c>
       <c r="H208">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>449</v>
@@ -13827,7 +13827,7 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0003754920247791136</v>
+        <v>0.00038126288495694</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -13845,7 +13845,7 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>450</v>
@@ -13877,19 +13877,19 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0003754920247791136</v>
+        <v>0.0003367489644094451</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D210">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E210">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F210">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
@@ -13927,25 +13927,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0003754920247791136</v>
+        <v>0.0003367489644094451</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D211">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E211">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F211">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>452</v>
@@ -13977,25 +13977,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0003316518745396713</v>
+        <v>0.0003286583964138284</v>
       </c>
       <c r="C212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D212">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E212">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="F212">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>453</v>
@@ -14027,25 +14027,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.0003316518745396713</v>
+        <v>0.0003286583964138284</v>
       </c>
       <c r="C213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D213">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E213">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="F213">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>454</v>
@@ -14077,25 +14077,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.000323683766763772</v>
+        <v>0.0002889837864364987</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D214">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E214">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F214">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>455</v>
@@ -14127,25 +14127,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.000323683766763772</v>
+        <v>0.0002700196124749327</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E215">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F215">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>164</v>
+        <v>47</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>456</v>
@@ -14177,25 +14177,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0002846096784627519</v>
+        <v>0.0002700196124749327</v>
       </c>
       <c r="C216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D216">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E216">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F216">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>457</v>
@@ -14227,7 +14227,7 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0002659325494789118</v>
+        <v>0.0002700196124749327</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -14245,7 +14245,7 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>458</v>
@@ -14277,7 +14277,7 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.0002659325494789118</v>
+        <v>0.0002700196124749327</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -14295,7 +14295,7 @@
         <v>1</v>
       </c>
       <c r="H218">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>459</v>
@@ -14327,7 +14327,7 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.0002659325494789118</v>
+        <v>0.0002700196124749327</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -14345,7 +14345,7 @@
         <v>1</v>
       </c>
       <c r="H219">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>460</v>
@@ -14377,25 +14377,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.0002659325494789118</v>
+        <v>0.0002384999546610339</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D220">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E220">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F220">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>83</v>
+        <v>351</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>461</v>
@@ -14427,25 +14427,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.0002659325494789118</v>
+        <v>0.0002384999546610339</v>
       </c>
       <c r="C221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D221">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E221">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F221">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>462</v>
@@ -14477,25 +14477,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.000234889978591839</v>
+        <v>0.0002043423950422133</v>
       </c>
       <c r="C222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D222">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E222">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F222">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>351</v>
+        <v>21</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>463</v>
@@ -14527,25 +14527,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.000234889978591839</v>
+        <v>0.0002043423950422133</v>
       </c>
       <c r="C223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D223">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E223">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F223">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>464</v>
@@ -14577,7 +14577,7 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0002012494336323348</v>
+        <v>0.0002043423950422133</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -14595,7 +14595,7 @@
         <v>1</v>
       </c>
       <c r="H224">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>465</v>
@@ -14627,7 +14627,7 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.0002012494336323348</v>
+        <v>0.0002043423950422133</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -14645,7 +14645,7 @@
         <v>1</v>
       </c>
       <c r="H225">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>466</v>
@@ -14677,7 +14677,7 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0002012494336323348</v>
+        <v>0.0002043423950422133</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -14695,7 +14695,7 @@
         <v>1</v>
       </c>
       <c r="H226">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>467</v>
@@ -14727,7 +14727,7 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.0002012494336323348</v>
+        <v>0.0002043423950422133</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -14745,7 +14745,7 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>468</v>
@@ -14777,7 +14777,7 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.0002012494336323348</v>
+        <v>0.0002043423950422133</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -14795,7 +14795,7 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>469</v>
@@ -14827,7 +14827,7 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.0002012494336323348</v>
+        <v>0.0002043423950422133</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -14845,7 +14845,7 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>470</v>
@@ -14877,7 +14877,7 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.0002012494336323348</v>
+        <v>0.0002043423950422133</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -14895,7 +14895,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>471</v>
@@ -14927,7 +14927,7 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.0002012494336323348</v>
+        <v>0.0002043423950422133</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -14945,7 +14945,7 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>472</v>
@@ -14977,7 +14977,7 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.0002012494336323348</v>
+        <v>0.0002043423950422133</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -14995,7 +14995,7 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>473</v>
@@ -15027,25 +15027,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.0002012494336323348</v>
+        <v>0.0001311242738545551</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E233">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F233">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>474</v>
@@ -15077,25 +15077,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.0002012494336323348</v>
+        <v>0.0001311242738545551</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E234">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F234">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>225</v>
+        <v>41</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>475</v>
@@ -15127,7 +15127,7 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.0001291395544386615</v>
+        <v>0.0001311242738545551</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -15145,7 +15145,7 @@
         <v>1</v>
       </c>
       <c r="H235">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>476</v>
@@ -15177,7 +15177,7 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.0001291395544386615</v>
+        <v>0.0001311242738545551</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -15195,7 +15195,7 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>477</v>
@@ -15227,7 +15227,7 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.0001291395544386615</v>
+        <v>0.0001311242738545551</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -15245,7 +15245,7 @@
         <v>1</v>
       </c>
       <c r="H237">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>478</v>
@@ -15277,7 +15277,7 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.0001291395544386615</v>
+        <v>0.0001311242738545551</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -15295,7 +15295,7 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>479</v>
@@ -15327,7 +15327,7 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.0001291395544386615</v>
+        <v>0.0001311242738545551</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -15345,7 +15345,7 @@
         <v>1</v>
       </c>
       <c r="H239">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>480</v>
@@ -15377,7 +15377,7 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.0001291395544386615</v>
+        <v>0.0001311242738545551</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -15395,7 +15395,7 @@
         <v>1</v>
       </c>
       <c r="H240">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>481</v>
@@ -15427,25 +15427,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.0001291395544386615</v>
+        <v>0.0001304489220509529</v>
       </c>
       <c r="C241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D241">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E241">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F241">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>482</v>
@@ -15477,25 +15477,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.0001291395544386615</v>
+        <v>7.547827647906117E-05</v>
       </c>
       <c r="C242">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D242">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E242">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F242">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>483</v>
@@ -15527,25 +15527,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.0001284744248753644</v>
+        <v>5.337120113061724E-05</v>
       </c>
       <c r="C243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D243">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E243">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="F243">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>484</v>
@@ -15577,13 +15577,13 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>7.433582438836481E-05</v>
+        <v>5.337120113061724E-05</v>
       </c>
       <c r="C244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D244">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E244">
         <v>0.67</v>
@@ -15595,7 +15595,7 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>485</v>
@@ -15627,7 +15627,7 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>5.25633655101051E-05</v>
+        <v>5.337120113061724E-05</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -15645,7 +15645,7 @@
         <v>1</v>
       </c>
       <c r="H245">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>486</v>
@@ -15677,7 +15677,7 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>5.25633655101051E-05</v>
+        <v>5.337120113061724E-05</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -15695,7 +15695,7 @@
         <v>1</v>
       </c>
       <c r="H246">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>487</v>
@@ -15727,7 +15727,7 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>5.25633655101051E-05</v>
+        <v>5.337120113061724E-05</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -15745,7 +15745,7 @@
         <v>1</v>
       </c>
       <c r="H247">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>488</v>
@@ -15777,7 +15777,7 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>5.25633655101051E-05</v>
+        <v>5.337120113061724E-05</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -15795,7 +15795,7 @@
         <v>1</v>
       </c>
       <c r="H248">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>489</v>
@@ -15827,7 +15827,7 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>5.25633655101051E-05</v>
+        <v>5.337120113061724E-05</v>
       </c>
       <c r="C249">
         <v>1</v>
@@ -15845,7 +15845,7 @@
         <v>1</v>
       </c>
       <c r="H249">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>490</v>
@@ -15877,7 +15877,7 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>5.25633655101051E-05</v>
+        <v>5.337120113061724E-05</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -15895,7 +15895,7 @@
         <v>1</v>
       </c>
       <c r="H250">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>491</v>
@@ -15927,7 +15927,7 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>5.25633655101051E-05</v>
+        <v>5.337120113061724E-05</v>
       </c>
       <c r="C251">
         <v>1</v>
@@ -15945,7 +15945,7 @@
         <v>1</v>
       </c>
       <c r="H251">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>492</v>
@@ -15977,7 +15977,7 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>5.25633655101051E-05</v>
+        <v>5.337120113061724E-05</v>
       </c>
       <c r="C252">
         <v>1</v>
@@ -15995,7 +15995,7 @@
         <v>1</v>
       </c>
       <c r="H252">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>493</v>
@@ -16027,7 +16027,7 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>5.25633655101051E-05</v>
+        <v>5.337120113061724E-05</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -16045,7 +16045,7 @@
         <v>1</v>
       </c>
       <c r="H253">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>494</v>
@@ -16077,7 +16077,7 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>5.25633655101051E-05</v>
+        <v>5.337120113061724E-05</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -16095,7 +16095,7 @@
         <v>1</v>
       </c>
       <c r="H254">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>495</v>
@@ -16127,7 +16127,7 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>5.25633655101051E-05</v>
+        <v>5.337120113061724E-05</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -16145,7 +16145,7 @@
         <v>1</v>
       </c>
       <c r="H255">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>496</v>
@@ -16177,7 +16177,7 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>5.25633655101051E-05</v>
+        <v>5.337120113061724E-05</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -16195,7 +16195,7 @@
         <v>1</v>
       </c>
       <c r="H256">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>497</v>
@@ -16227,7 +16227,7 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>5.25633655101051E-05</v>
+        <v>5.337120113061724E-05</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -16245,7 +16245,7 @@
         <v>1</v>
       </c>
       <c r="H257">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>498</v>
@@ -16277,25 +16277,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>5.25633655101051E-05</v>
+        <v>5.054923176531703E-05</v>
       </c>
       <c r="C258">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D258">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E258">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="F258">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>499</v>
@@ -16327,25 +16327,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>5.25633655101051E-05</v>
+        <v>2.608158878004049E-05</v>
       </c>
       <c r="C259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D259">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E259">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F259">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>500</v>
@@ -16377,25 +16377,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>4.978410995534297E-05</v>
+        <v>0</v>
       </c>
       <c r="C260">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D260">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E260">
-        <v>0.62</v>
+        <v>0.5</v>
       </c>
       <c r="F260">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>501</v>
@@ -16427,25 +16427,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>2.568681339538122E-05</v>
+        <v>0</v>
       </c>
       <c r="C261">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D261">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E261">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F261">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>502</v>
@@ -16495,7 +16495,7 @@
         <v>1</v>
       </c>
       <c r="H262">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>503</v>
@@ -16545,7 +16545,7 @@
         <v>1</v>
       </c>
       <c r="H263">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>504</v>
@@ -16580,10 +16580,10 @@
         <v>0</v>
       </c>
       <c r="C264">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D264">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E264">
         <v>0.5</v>
@@ -16595,7 +16595,7 @@
         <v>1</v>
       </c>
       <c r="H264">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>505</v>
@@ -16645,7 +16645,7 @@
         <v>1</v>
       </c>
       <c r="H265">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>506</v>
@@ -16680,10 +16680,10 @@
         <v>0</v>
       </c>
       <c r="C266">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D266">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E266">
         <v>0.5</v>
@@ -16695,7 +16695,7 @@
         <v>1</v>
       </c>
       <c r="H266">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>507</v>
@@ -16745,7 +16745,7 @@
         <v>1</v>
       </c>
       <c r="H267">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>508</v>
@@ -16780,10 +16780,10 @@
         <v>0</v>
       </c>
       <c r="C268">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D268">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E268">
         <v>0.5</v>
@@ -16795,7 +16795,7 @@
         <v>1</v>
       </c>
       <c r="H268">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>509</v>
@@ -16845,7 +16845,7 @@
         <v>1</v>
       </c>
       <c r="H269">
-        <v>37</v>
+        <v>234</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>510</v>
@@ -16895,7 +16895,7 @@
         <v>1</v>
       </c>
       <c r="H270">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>511</v>
@@ -16945,7 +16945,7 @@
         <v>1</v>
       </c>
       <c r="H271">
-        <v>234</v>
+        <v>64</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>512</v>
@@ -16973,30 +16973,6 @@
       </c>
     </row>
     <row r="272" spans="1:17">
-      <c r="A272" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B272">
-        <v>0</v>
-      </c>
-      <c r="C272">
-        <v>1</v>
-      </c>
-      <c r="D272">
-        <v>2</v>
-      </c>
-      <c r="E272">
-        <v>0.5</v>
-      </c>
-      <c r="F272">
-        <v>0.5</v>
-      </c>
-      <c r="G272" t="b">
-        <v>1</v>
-      </c>
-      <c r="H272">
-        <v>27</v>
-      </c>
       <c r="J272" s="1" t="s">
         <v>513</v>
       </c>
@@ -17022,31 +16998,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="273" spans="1:17">
-      <c r="A273" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B273">
-        <v>0</v>
-      </c>
-      <c r="C273">
-        <v>1</v>
-      </c>
-      <c r="D273">
-        <v>2</v>
-      </c>
-      <c r="E273">
-        <v>0.5</v>
-      </c>
-      <c r="F273">
-        <v>0.5</v>
-      </c>
-      <c r="G273" t="b">
-        <v>1</v>
-      </c>
-      <c r="H273">
-        <v>64</v>
-      </c>
+    <row r="273" spans="10:17">
       <c r="J273" s="1" t="s">
         <v>514</v>
       </c>
@@ -17072,7 +17024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:17">
+    <row r="274" spans="10:17">
       <c r="J274" s="1" t="s">
         <v>515</v>
       </c>
@@ -17098,7 +17050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="275" spans="1:17">
+    <row r="275" spans="10:17">
       <c r="J275" s="1" t="s">
         <v>516</v>
       </c>
@@ -17124,7 +17076,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="276" spans="1:17">
+    <row r="276" spans="10:17">
       <c r="J276" s="1" t="s">
         <v>517</v>
       </c>
@@ -17150,7 +17102,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="277" spans="1:17">
+    <row r="277" spans="10:17">
       <c r="J277" s="1" t="s">
         <v>518</v>
       </c>
@@ -17176,9 +17128,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:17">
+    <row r="278" spans="10:17">
       <c r="J278" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K278">
         <v>0.0009775886489523588</v>
@@ -17202,9 +17154,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="279" spans="1:17">
+    <row r="279" spans="10:17">
       <c r="J279" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K279">
         <v>0.0009733114130302281</v>
@@ -17228,9 +17180,9 @@
         <v>212</v>
       </c>
     </row>
-    <row r="280" spans="1:17">
+    <row r="280" spans="10:17">
       <c r="J280" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K280">
         <v>0.0009708859983896629</v>
@@ -17254,9 +17206,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="281" spans="1:17">
+    <row r="281" spans="10:17">
       <c r="J281" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K281">
         <v>0.000911489532448054</v>
@@ -17280,7 +17232,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="282" spans="1:17">
+    <row r="282" spans="10:17">
       <c r="J282" s="1" t="s">
         <v>519</v>
       </c>
@@ -17306,7 +17258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="283" spans="1:17">
+    <row r="283" spans="10:17">
       <c r="J283" s="1" t="s">
         <v>520</v>
       </c>
@@ -17332,7 +17284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:17">
+    <row r="284" spans="10:17">
       <c r="J284" s="1" t="s">
         <v>521</v>
       </c>
@@ -17358,7 +17310,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="285" spans="1:17">
+    <row r="285" spans="10:17">
       <c r="J285" s="1" t="s">
         <v>522</v>
       </c>
@@ -17384,7 +17336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="286" spans="1:17">
+    <row r="286" spans="10:17">
       <c r="J286" s="1" t="s">
         <v>523</v>
       </c>
@@ -17410,7 +17362,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="287" spans="1:17">
+    <row r="287" spans="10:17">
       <c r="J287" s="1" t="s">
         <v>524</v>
       </c>
@@ -17436,7 +17388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:17">
+    <row r="288" spans="10:17">
       <c r="J288" s="1" t="s">
         <v>525</v>
       </c>
@@ -21078,7 +21030,7 @@
     </row>
     <row r="428" spans="10:17">
       <c r="J428" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K428">
         <v>0.0007709117567181043</v>
@@ -21104,7 +21056,7 @@
     </row>
     <row r="429" spans="10:17">
       <c r="J429" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K429">
         <v>0.0007709117567181043</v>
@@ -21130,7 +21082,7 @@
     </row>
     <row r="430" spans="10:17">
       <c r="J430" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K430">
         <v>0.0007547570628276873</v>
@@ -21156,7 +21108,7 @@
     </row>
     <row r="431" spans="10:17">
       <c r="J431" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K431">
         <v>0.0007547570628276873</v>
@@ -21182,7 +21134,7 @@
     </row>
     <row r="432" spans="10:17">
       <c r="J432" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K432">
         <v>0.0007289747301117672</v>
@@ -21208,7 +21160,7 @@
     </row>
     <row r="433" spans="10:17">
       <c r="J433" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K433">
         <v>0.0006865200732204021</v>
@@ -21234,7 +21186,7 @@
     </row>
     <row r="434" spans="10:17">
       <c r="J434" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K434">
         <v>0.0006435354861903773</v>
@@ -21260,7 +21212,7 @@
     </row>
     <row r="435" spans="10:17">
       <c r="J435" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K435">
         <v>0.0006435354861903773</v>
@@ -21286,7 +21238,7 @@
     </row>
     <row r="436" spans="10:17">
       <c r="J436" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K436">
         <v>0.0006269949673750976</v>
@@ -21312,7 +21264,7 @@
     </row>
     <row r="437" spans="10:17">
       <c r="J437" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K437">
         <v>0.000621316992117521</v>
@@ -21338,7 +21290,7 @@
     </row>
     <row r="438" spans="10:17">
       <c r="J438" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K438">
         <v>0.0006000104378402445</v>
@@ -30854,7 +30806,7 @@
     </row>
     <row r="804" spans="10:17">
       <c r="J804" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K804">
         <v>0.00056199329560387</v>
@@ -30880,7 +30832,7 @@
     </row>
     <row r="805" spans="10:17">
       <c r="J805" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K805">
         <v>0.0005559372401633343</v>
@@ -30906,7 +30858,7 @@
     </row>
     <row r="806" spans="10:17">
       <c r="J806" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K806">
         <v>0.0005559372401633343</v>
@@ -30932,7 +30884,7 @@
     </row>
     <row r="807" spans="10:17">
       <c r="J807" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K807">
         <v>0.0004204339756560401</v>
@@ -30958,7 +30910,7 @@
     </row>
     <row r="808" spans="10:17">
       <c r="J808" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K808">
         <v>0.0004204339756560401</v>
@@ -30984,7 +30936,7 @@
     </row>
     <row r="809" spans="10:17">
       <c r="J809" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K809">
         <v>0.0004204339756560401</v>
@@ -31010,7 +30962,7 @@
     </row>
     <row r="810" spans="10:17">
       <c r="J810" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K810">
         <v>0.0004204339756560401</v>
@@ -31036,7 +30988,7 @@
     </row>
     <row r="811" spans="10:17">
       <c r="J811" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K811">
         <v>0.0004204339756560401</v>
@@ -31062,7 +31014,7 @@
     </row>
     <row r="812" spans="10:17">
       <c r="J812" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K812">
         <v>0.0003769290764591098</v>
@@ -31088,7 +31040,7 @@
     </row>
     <row r="813" spans="10:17">
       <c r="J813" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K813">
         <v>0.0003742241263182609</v>
@@ -31114,7 +31066,7 @@
     </row>
     <row r="814" spans="10:17">
       <c r="J814" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K814">
         <v>0.0003742241263182609</v>
@@ -31140,7 +31092,7 @@
     </row>
     <row r="815" spans="10:17">
       <c r="J815" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K815">
         <v>0.0002966461107840186</v>
@@ -31166,7 +31118,7 @@
     </row>
     <row r="816" spans="10:17">
       <c r="J816" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K816">
         <v>0.0002805553840987029</v>
@@ -31192,7 +31144,7 @@
     </row>
     <row r="817" spans="10:17">
       <c r="J817" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K817">
         <v>0.0002545558059348742</v>
@@ -31218,7 +31170,7 @@
     </row>
     <row r="818" spans="10:17">
       <c r="J818" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K818">
         <v>0.0002419257283330341</v>
@@ -31244,7 +31196,7 @@
     </row>
     <row r="819" spans="10:17">
       <c r="J819" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K819">
         <v>0.0002333536873603581</v>
@@ -31270,7 +31222,7 @@
     </row>
     <row r="820" spans="10:17">
       <c r="J820" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K820">
         <v>0.0002333536873603581</v>
@@ -31296,7 +31248,7 @@
     </row>
     <row r="821" spans="10:17">
       <c r="J821" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K821">
         <v>0.0002333536873603581</v>
@@ -31322,7 +31274,7 @@
     </row>
     <row r="822" spans="10:17">
       <c r="J822" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K822">
         <v>0.0002333536873603581</v>
@@ -31348,7 +31300,7 @@
     </row>
     <row r="823" spans="10:17">
       <c r="J823" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K823">
         <v>0.0001975315300223723</v>
@@ -31374,7 +31326,7 @@
     </row>
     <row r="824" spans="10:17">
       <c r="J824" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K824">
         <v>0.0001975315300223723</v>
@@ -31400,7 +31352,7 @@
     </row>
     <row r="825" spans="10:17">
       <c r="J825" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K825">
         <v>0.0001862350736961664</v>
@@ -31426,7 +31378,7 @@
     </row>
     <row r="826" spans="10:17">
       <c r="J826" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K826">
         <v>0.0001862350736961664</v>
@@ -31452,7 +31404,7 @@
     </row>
     <row r="827" spans="10:17">
       <c r="J827" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K827">
         <v>0.000165254632901642</v>
@@ -31478,7 +31430,7 @@
     </row>
     <row r="828" spans="10:17">
       <c r="J828" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K828">
         <v>0.000165254632901642</v>
@@ -31504,7 +31456,7 @@
     </row>
     <row r="829" spans="10:17">
       <c r="J829" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K829">
         <v>0.0001396758843769735</v>
@@ -31530,7 +31482,7 @@
     </row>
     <row r="830" spans="10:17">
       <c r="J830" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K830">
         <v>0.0001396758843769735</v>
@@ -31556,7 +31508,7 @@
     </row>
     <row r="831" spans="10:17">
       <c r="J831" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K831">
         <v>0.0001396758843769735</v>
@@ -31582,7 +31534,7 @@
     </row>
     <row r="832" spans="10:17">
       <c r="J832" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K832">
         <v>0.0001396758843769735</v>
@@ -31608,7 +31560,7 @@
     </row>
     <row r="833" spans="10:17">
       <c r="J833" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K833">
         <v>0.0001396758843769735</v>
@@ -31634,7 +31586,7 @@
     </row>
     <row r="834" spans="10:17">
       <c r="J834" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K834">
         <v>0.0001337040587020578</v>
@@ -31660,7 +31612,7 @@
     </row>
     <row r="835" spans="10:17">
       <c r="J835" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K835">
         <v>0.0001032199016709901</v>
@@ -31686,7 +31638,7 @@
     </row>
     <row r="836" spans="10:17">
       <c r="J836" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K836">
         <v>0.0001032199016709901</v>
@@ -31712,7 +31664,7 @@
     </row>
     <row r="837" spans="10:17">
       <c r="J837" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K837">
         <v>9.454304658038932E-05</v>
@@ -31738,7 +31690,7 @@
     </row>
     <row r="838" spans="10:17">
       <c r="J838" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K838">
         <v>9.454304658038932E-05</v>
@@ -31764,7 +31716,7 @@
     </row>
     <row r="839" spans="10:17">
       <c r="J839" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K839">
         <v>9.454304658038932E-05</v>
@@ -31790,7 +31742,7 @@
     </row>
     <row r="840" spans="10:17">
       <c r="J840" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K840">
         <v>9.454304658038932E-05</v>
@@ -31816,7 +31768,7 @@
     </row>
     <row r="841" spans="10:17">
       <c r="J841" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K841">
         <v>9.454304658038932E-05</v>
@@ -31842,7 +31794,7 @@
     </row>
     <row r="842" spans="10:17">
       <c r="J842" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K842">
         <v>9.454304658038932E-05</v>
@@ -31868,7 +31820,7 @@
     </row>
     <row r="843" spans="10:17">
       <c r="J843" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K843">
         <v>9.454304658038932E-05</v>
@@ -31894,7 +31846,7 @@
     </row>
     <row r="844" spans="10:17">
       <c r="J844" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K844">
         <v>9.454304658038932E-05</v>
@@ -31920,7 +31872,7 @@
     </row>
     <row r="845" spans="10:17">
       <c r="J845" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K845">
         <v>9.454304658038932E-05</v>
@@ -31946,7 +31898,7 @@
     </row>
     <row r="846" spans="10:17">
       <c r="J846" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K846">
         <v>9.454304658038932E-05</v>
@@ -31972,7 +31924,7 @@
     </row>
     <row r="847" spans="10:17">
       <c r="J847" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K847">
         <v>9.454304658038932E-05</v>
@@ -31998,7 +31950,7 @@
     </row>
     <row r="848" spans="10:17">
       <c r="J848" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K848">
         <v>6.246495445686279E-05</v>
@@ -32024,7 +31976,7 @@
     </row>
     <row r="849" spans="10:17">
       <c r="J849" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K849">
         <v>5.253936766366013E-05</v>
@@ -32050,7 +32002,7 @@
     </row>
     <row r="850" spans="10:17">
       <c r="J850" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K850">
         <v>5.253936766366013E-05</v>
@@ -32076,7 +32028,7 @@
     </row>
     <row r="851" spans="10:17">
       <c r="J851" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K851">
         <v>5.253936766366013E-05</v>
@@ -32102,7 +32054,7 @@
     </row>
     <row r="852" spans="10:17">
       <c r="J852" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K852">
         <v>5.253936766366013E-05</v>
@@ -32128,7 +32080,7 @@
     </row>
     <row r="853" spans="10:17">
       <c r="J853" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K853">
         <v>5.253936766366013E-05</v>
@@ -32154,7 +32106,7 @@
     </row>
     <row r="854" spans="10:17">
       <c r="J854" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K854">
         <v>5.253936766366013E-05</v>
@@ -32180,7 +32132,7 @@
     </row>
     <row r="855" spans="10:17">
       <c r="J855" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K855">
         <v>5.253936766366013E-05</v>
@@ -32206,7 +32158,7 @@
     </row>
     <row r="856" spans="10:17">
       <c r="J856" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K856">
         <v>5.253936766366013E-05</v>
@@ -32232,7 +32184,7 @@
     </row>
     <row r="857" spans="10:17">
       <c r="J857" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K857">
         <v>4.771463621903777E-05</v>
@@ -32258,7 +32210,7 @@
     </row>
     <row r="858" spans="10:17">
       <c r="J858" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K858">
         <v>2.469324074184872E-05</v>
@@ -32284,7 +32236,7 @@
     </row>
     <row r="859" spans="10:17">
       <c r="J859" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K859">
         <v>1.746075797803325E-05</v>
@@ -32310,7 +32262,7 @@
     </row>
     <row r="860" spans="10:17">
       <c r="J860" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K860">
         <v>1.746075797803325E-05</v>
@@ -32336,7 +32288,7 @@
     </row>
     <row r="861" spans="10:17">
       <c r="J861" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K861">
         <v>1.746075797803325E-05</v>
@@ -32362,7 +32314,7 @@
     </row>
     <row r="862" spans="10:17">
       <c r="J862" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K862">
         <v>1.746075797803325E-05</v>
@@ -32388,7 +32340,7 @@
     </row>
     <row r="863" spans="10:17">
       <c r="J863" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K863">
         <v>1.746075797803325E-05</v>
@@ -32414,7 +32366,7 @@
     </row>
     <row r="864" spans="10:17">
       <c r="J864" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K864">
         <v>1.746075797803325E-05</v>
@@ -32440,7 +32392,7 @@
     </row>
     <row r="865" spans="10:17">
       <c r="J865" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K865">
         <v>1.746075797803325E-05</v>
@@ -32466,7 +32418,7 @@
     </row>
     <row r="866" spans="10:17">
       <c r="J866" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K866">
         <v>1.746075797803325E-05</v>
@@ -32492,7 +32444,7 @@
     </row>
     <row r="867" spans="10:17">
       <c r="J867" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K867">
         <v>1.746075797803325E-05</v>
@@ -32518,7 +32470,7 @@
     </row>
     <row r="868" spans="10:17">
       <c r="J868" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K868">
         <v>1.746075797803325E-05</v>
@@ -32544,7 +32496,7 @@
     </row>
     <row r="869" spans="10:17">
       <c r="J869" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K869">
         <v>1.746075797803325E-05</v>
@@ -32570,7 +32522,7 @@
     </row>
     <row r="870" spans="10:17">
       <c r="J870" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K870">
         <v>1.746075797803325E-05</v>
@@ -32596,7 +32548,7 @@
     </row>
     <row r="871" spans="10:17">
       <c r="J871" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K871">
         <v>1.746075797803325E-05</v>
@@ -32622,7 +32574,7 @@
     </row>
     <row r="872" spans="10:17">
       <c r="J872" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K872">
         <v>1.746075797803325E-05</v>
@@ -32648,7 +32600,7 @@
     </row>
     <row r="873" spans="10:17">
       <c r="J873" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K873">
         <v>1.746075797803325E-05</v>
@@ -32674,7 +32626,7 @@
     </row>
     <row r="874" spans="10:17">
       <c r="J874" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K874">
         <v>1.509663143775649E-05</v>
@@ -32700,7 +32652,7 @@
     </row>
     <row r="875" spans="10:17">
       <c r="J875" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K875">
         <v>7.389597621062901E-06</v>
@@ -32726,7 +32678,7 @@
     </row>
     <row r="876" spans="10:17">
       <c r="J876" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K876">
         <v>0</v>
@@ -32752,7 +32704,7 @@
     </row>
     <row r="877" spans="10:17">
       <c r="J877" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K877">
         <v>0</v>
@@ -32778,7 +32730,7 @@
     </row>
     <row r="878" spans="10:17">
       <c r="J878" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K878">
         <v>0</v>
@@ -32804,7 +32756,7 @@
     </row>
     <row r="879" spans="10:17">
       <c r="J879" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K879">
         <v>0</v>
@@ -32830,7 +32782,7 @@
     </row>
     <row r="880" spans="10:17">
       <c r="J880" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K880">
         <v>0</v>
@@ -32856,7 +32808,7 @@
     </row>
     <row r="881" spans="10:17">
       <c r="J881" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K881">
         <v>0</v>
@@ -32882,7 +32834,7 @@
     </row>
     <row r="882" spans="10:17">
       <c r="J882" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K882">
         <v>0</v>
@@ -32908,7 +32860,7 @@
     </row>
     <row r="883" spans="10:17">
       <c r="J883" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K883">
         <v>0</v>
@@ -32934,7 +32886,7 @@
     </row>
     <row r="884" spans="10:17">
       <c r="J884" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K884">
         <v>0</v>
@@ -32960,7 +32912,7 @@
     </row>
     <row r="885" spans="10:17">
       <c r="J885" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K885">
         <v>0</v>
@@ -32986,7 +32938,7 @@
     </row>
     <row r="886" spans="10:17">
       <c r="J886" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K886">
         <v>0</v>
@@ -33012,7 +32964,7 @@
     </row>
     <row r="887" spans="10:17">
       <c r="J887" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K887">
         <v>0</v>
